--- a/biology/Botanique/Charles_Fuller_Baker/Charles_Fuller_Baker.xlsx
+++ b/biology/Botanique/Charles_Fuller_Baker/Charles_Fuller_Baker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Fuller Baker est un entomologiste, un botaniste, un agronome et un collectionneur américain, né le 22 mars 1872 à Lansing dans le Michigan et mort le 22 juillet 1927 à Manille.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'école d'agriculture du Michigan, il devient assistant de Clarence Preston Gillette (1859-1941) à l'école d'agriculture du Colorado. Baker commence ses recherches et ses collections en botanique et entomologie, il fait aussi paraître ses premières publications.
 Parmi elles, il faut citer une étude des hémiptères du Colorado (A Preliminary List of the Hemiptera of Colorado) qu'il signe avec C.P. Gillette.
@@ -553,7 +567,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Edward Oliver Essig (1931). A History of Entomology. Mac Millan (New York) : vii + 1029 p.</t>
         </is>
